--- a/Scripts/Evaluation files/Evaluation Overview.xlsx
+++ b/Scripts/Evaluation files/Evaluation Overview.xlsx
@@ -8,10 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leech\Downloads\00. School\On Github\NUS-Capstone\Scripts\Evaluation files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171E936-F302-4F5B-953B-BDE5CA1D5265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2CD48-9142-48BB-9C72-72212B4F7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1287C323-5DD6-494F-92A2-11C5150D5CF0}"/>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="14" xr2:uid="{AFA2DFEC-F325-4521-9FE1-A737FE8E8842}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{AFA2DFEC-F325-4521-9FE1-A737FE8E8842}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E0EFB080-E13E-4E8F-85AE-011515BC83F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="18" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1171">
   <si>
     <t>Job Profile</t>
   </si>
@@ -3687,36 +3688,6 @@
     <t>Layer 1 - Diversity (Across schedules)</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
     <t>Cosine similarity</t>
   </si>
   <si>
@@ -3724,12 +3695,186 @@
   </si>
   <si>
     <t>Total no. of actions = 72, No. of 0s</t>
+  </si>
+  <si>
+    <t>Job/all*100</t>
+  </si>
+  <si>
+    <t>Job-related tasks</t>
+  </si>
+  <si>
+    <t>Non-job related tasks</t>
+  </si>
+  <si>
+    <t>Distinct tasks/ All * 100</t>
+  </si>
+  <si>
+    <t>Distinct tasks</t>
+  </si>
+  <si>
+    <t>Dot Product</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(95)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(71)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(65)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(63)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(28)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(57)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3761,7 +3906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,6 +3940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4091,10 +4242,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4911,18 +5062,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8E3F46-D1AA-4051-8003-3D916FCFA9D7}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
+      <selection activeCell="A45" sqref="A43:XFD45"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="9.06640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="9.06640625" customWidth="1"/>
     <col min="13" max="13" width="9.06640625" style="13"/>
     <col min="15" max="15" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
@@ -4966,19 +5122,21 @@
         <v>1145</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+        <v>1156</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="N3" s="17" t="s">
         <v>20</v>
       </c>
@@ -5018,14 +5176,10 @@
       <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="E4" s="55">
+        <f>(C4/B4)*100</f>
+        <v>73.333333333333329</v>
+      </c>
       <c r="N4" s="5">
         <v>7</v>
       </c>
@@ -5057,14 +5211,10 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="E5" s="55">
+        <f t="shared" ref="E5:E13" si="1">(C5/B5)*100</f>
+        <v>73.333333333333329</v>
+      </c>
       <c r="N5" s="5">
         <v>11</v>
       </c>
@@ -5096,14 +5246,10 @@
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="E6" s="55">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
       <c r="N6" s="5">
         <v>22</v>
       </c>
@@ -5135,14 +5281,10 @@
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="E7" s="55">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
       <c r="N7" s="5">
         <v>26</v>
       </c>
@@ -5174,14 +5316,10 @@
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="E8" s="55">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
       <c r="N8" s="5">
         <v>32</v>
       </c>
@@ -5213,14 +5351,10 @@
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="E9" s="55">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
       <c r="N9" s="5">
         <v>39</v>
       </c>
@@ -5252,14 +5386,10 @@
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="E10" s="55">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
       <c r="N10" s="5">
         <v>44</v>
       </c>
@@ -5291,14 +5421,10 @@
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="E11" s="55">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
       <c r="N11" s="5">
         <v>64</v>
       </c>
@@ -5330,14 +5456,10 @@
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="E12" s="55">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
       <c r="N12" s="5">
         <v>71</v>
       </c>
@@ -5369,14 +5491,10 @@
       <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="E13" s="55">
+        <f t="shared" si="1"/>
+        <v>73.333333333333329</v>
+      </c>
       <c r="N13" s="5">
         <v>86</v>
       </c>
@@ -5394,27 +5512,6 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1149</v>
@@ -5448,17 +5545,19 @@
         <v>1145</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+        <v>1158</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="N17" s="17" t="s">
         <v>20</v>
       </c>
@@ -5468,7 +5567,7 @@
       <c r="P17" s="17" t="s">
         <v>1146</v>
       </c>
-      <c r="Q17" s="52"/>
+      <c r="Q17" s="1"/>
       <c r="S17" s="17" t="s">
         <v>20</v>
       </c>
@@ -5489,15 +5588,10 @@
       <c r="C18" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
+      <c r="D18" s="5">
+        <f>(B18/C18)*100</f>
+        <v>100</v>
+      </c>
       <c r="N18" s="5">
         <v>7</v>
       </c>
@@ -5507,7 +5601,6 @@
       <c r="P18" s="5">
         <v>18</v>
       </c>
-      <c r="Q18" s="53"/>
       <c r="S18" s="5">
         <v>22</v>
       </c>
@@ -5528,15 +5621,10 @@
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:D27" si="2">(B19/C19)*100</f>
+        <v>100</v>
+      </c>
       <c r="N19" s="5">
         <v>11</v>
       </c>
@@ -5546,7 +5634,6 @@
       <c r="P19" s="5">
         <v>19</v>
       </c>
-      <c r="Q19" s="53"/>
       <c r="S19" s="5">
         <v>32</v>
       </c>
@@ -5567,15 +5654,10 @@
       <c r="C20" s="5">
         <v>15</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N20" s="5">
         <v>22</v>
       </c>
@@ -5585,7 +5667,6 @@
       <c r="P20" s="5">
         <v>19</v>
       </c>
-      <c r="Q20" s="53"/>
       <c r="S20" s="5">
         <v>45</v>
       </c>
@@ -5606,15 +5687,10 @@
       <c r="C21" s="5">
         <v>16</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N21" s="5">
         <v>26</v>
       </c>
@@ -5624,7 +5700,6 @@
       <c r="P21" s="5">
         <v>18</v>
       </c>
-      <c r="Q21" s="53"/>
       <c r="S21" s="5">
         <v>48</v>
       </c>
@@ -5645,15 +5720,10 @@
       <c r="C22" s="5">
         <v>16</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N22" s="5">
         <v>32</v>
       </c>
@@ -5663,7 +5733,6 @@
       <c r="P22" s="5">
         <v>19</v>
       </c>
-      <c r="Q22" s="53"/>
       <c r="S22" s="5">
         <v>51</v>
       </c>
@@ -5684,15 +5753,10 @@
       <c r="C23" s="5">
         <v>16</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N23" s="5">
         <v>39</v>
       </c>
@@ -5702,7 +5766,6 @@
       <c r="P23" s="5">
         <v>19</v>
       </c>
-      <c r="Q23" s="53"/>
       <c r="S23" s="5">
         <v>72</v>
       </c>
@@ -5723,15 +5786,10 @@
       <c r="C24" s="5">
         <v>16</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N24" s="5">
         <v>44</v>
       </c>
@@ -5741,7 +5799,6 @@
       <c r="P24" s="5">
         <v>18</v>
       </c>
-      <c r="Q24" s="53"/>
       <c r="S24" s="5">
         <v>78</v>
       </c>
@@ -5762,15 +5819,10 @@
       <c r="C25" s="5">
         <v>15</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N25" s="5">
         <v>64</v>
       </c>
@@ -5780,7 +5832,6 @@
       <c r="P25" s="5">
         <v>18</v>
       </c>
-      <c r="Q25" s="53"/>
       <c r="S25" s="5">
         <v>91</v>
       </c>
@@ -5801,15 +5852,10 @@
       <c r="C26" s="5">
         <v>16</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N26" s="5">
         <v>71</v>
       </c>
@@ -5819,7 +5865,6 @@
       <c r="P26" s="5">
         <v>18</v>
       </c>
-      <c r="Q26" s="53"/>
       <c r="S26" s="5">
         <v>98</v>
       </c>
@@ -5840,15 +5885,10 @@
       <c r="C27" s="5">
         <v>15</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="N27" s="5">
         <v>86</v>
       </c>
@@ -5858,7 +5898,6 @@
       <c r="P27" s="5">
         <v>19</v>
       </c>
-      <c r="Q27" s="53"/>
       <c r="S27" s="5">
         <v>99</v>
       </c>
@@ -5876,139 +5915,272 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>1161</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>1151</v>
-      </c>
       <c r="C31" s="17" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+        <v>1161</v>
+      </c>
+      <c r="B32" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!B7:B78)</f>
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!C7:C78)</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!D7:D78)</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!E7:E78)</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!F7:F78)</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!G7:G78)</f>
+        <v>4</v>
+      </c>
+      <c r="H32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!H7:H78)</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!I7:I78)</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!J7:J78)</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!K7:K78)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+        <v>1162</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!C7:C78)</f>
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!D7:D78)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!E7:E78)</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!F7:F78)</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!G7:G78)</f>
+        <v>7</v>
+      </c>
+      <c r="H33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!H7:H78)</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!I7:I78)</f>
+        <v>6</v>
+      </c>
+      <c r="J33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!J7:J78)</f>
+        <v>7</v>
+      </c>
+      <c r="K33" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$C$7:$C$78,'Cosine similarity'!K7:K78)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D34" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!D7:D78)</f>
+        <v>15</v>
+      </c>
+      <c r="E34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!E7:E78)</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!F7:F78)</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!G7:G78)</f>
+        <v>7</v>
+      </c>
+      <c r="H34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!H7:H78)</f>
+        <v>6</v>
+      </c>
+      <c r="I34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!I7:I78)</f>
+        <v>6</v>
+      </c>
+      <c r="J34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!J7:J78)</f>
+        <v>6</v>
+      </c>
+      <c r="K34" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$D$7:$D$78,'Cosine similarity'!K7:K78)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="17" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="E35" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!E7:E78)</f>
+        <v>16</v>
+      </c>
+      <c r="F35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!F7:F78)</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!G7:G78)</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!H7:H78)</f>
+        <v>9</v>
+      </c>
+      <c r="I35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!I7:I78)</f>
+        <v>7</v>
+      </c>
+      <c r="J35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!J7:J78)</f>
+        <v>7</v>
+      </c>
+      <c r="K35" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$E$7:$E$78,'Cosine similarity'!K7:K78)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="F36" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!F7:F78)</f>
+        <v>16</v>
+      </c>
+      <c r="G36" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!G7:G78)</f>
+        <v>7</v>
+      </c>
+      <c r="H36" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!H7:H78)</f>
+        <v>7</v>
+      </c>
+      <c r="I36" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!I7:I78)</f>
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!J7:J78)</f>
+        <v>9</v>
+      </c>
+      <c r="K36" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$F$7:$F$78,'Cosine similarity'!K7:K78)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="G37" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$G$7:$G$78,'Cosine similarity'!G7:G78)</f>
+        <v>16</v>
+      </c>
+      <c r="H37" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$G$7:$G$78,'Cosine similarity'!H7:H78)</f>
+        <v>8</v>
+      </c>
+      <c r="I37" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$G$7:$G$78,'Cosine similarity'!I7:I78)</f>
+        <v>8</v>
+      </c>
+      <c r="J37" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$G$7:$G$78,'Cosine similarity'!J7:J78)</f>
+        <v>8</v>
+      </c>
+      <c r="K37" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$G$7:$G$78,'Cosine similarity'!K7:K78)</f>
+        <v>9</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -6016,21 +6188,26 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="H38" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$H$7:$H$78,'Cosine similarity'!H7:H78)</f>
+        <v>16</v>
+      </c>
+      <c r="I38" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$H$7:$H$78,'Cosine similarity'!I7:I78)</f>
+        <v>8</v>
+      </c>
+      <c r="J38" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$H$7:$H$78,'Cosine similarity'!J7:J78)</f>
+        <v>8</v>
+      </c>
+      <c r="K38" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$H$7:$H$78,'Cosine similarity'!K7:K78)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="17" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -6039,20 +6216,22 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I39" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$I$7:$I$78,'Cosine similarity'!I7:I78)</f>
+        <v>15</v>
+      </c>
+      <c r="J39" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$I$7:$I$78,'Cosine similarity'!J7:J78)</f>
+        <v>9</v>
+      </c>
+      <c r="K39" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$I$7:$I$78,'Cosine similarity'!K7:K78)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -6062,19 +6241,18 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="J40" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$J$7:$J$78,'Cosine similarity'!J7:J78)</f>
+        <v>16</v>
+      </c>
+      <c r="K40" s="5">
+        <f>SUMPRODUCT('Cosine similarity'!$J$7:$J$78,'Cosine similarity'!K7:K78)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="17" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -6085,77 +6263,619 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
+      <c r="K41" s="53">
+        <f>SUMPRODUCT('Cosine similarity'!$K$7:$K$78,'Cosine similarity'!K7:K78)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A43" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A44" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B44" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!B7:B78,'Cosine similarity'!B7:B78))</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A45" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="C45" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!C7:C78,'Cosine similarity'!C7:C78))</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A46" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!D7:D78,'Cosine similarity'!D7:D78))</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A47" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!E7:E78,'Cosine similarity'!E7:E78))</f>
+        <v>4</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A48" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!F7:F78,'Cosine similarity'!F7:F78))</f>
+        <v>4</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!G7:G78,'Cosine similarity'!G7:G78))</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!H7:H78,'Cosine similarity'!H7:H78))</f>
+        <v>4</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!I7:I78,'Cosine similarity'!I7:I78))</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!J7:J78,'Cosine similarity'!J7:J78))</f>
+        <v>4</v>
+      </c>
+      <c r="K52" s="53"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="5">
+        <f>SQRT(SUMPRODUCT('Cosine similarity'!K7:K78,'Cosine similarity'!K7:K78))</f>
+        <v>3.872983346207417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" s="53">
+        <f>B32/(B44*B44)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C56" s="5">
+        <f>C32/(B44*C45)</f>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="D56" s="5">
+        <f>D32/(B44*D46)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E56" s="5">
+        <f>E32/(B44*E47)</f>
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="F56" s="5">
+        <f>F32/(B44*F48)</f>
+        <v>0.19364916731037085</v>
+      </c>
+      <c r="G56" s="5">
+        <f>G32/(B44*G49)</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="H56" s="5">
+        <f>H32/(B44*H50)</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="I56" s="5">
+        <f>I32/(B44*I51)</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J56" s="5">
+        <f>J32/(B44*J52)</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="K56" s="5">
+        <f>K32/(B44*K53)</f>
+        <v>0.26666666666666661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="53">
+        <f>C33/(C45*C45)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D57" s="5">
+        <f>D33/(C45*D46)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E57" s="5">
+        <f>E33/(C45*E47)</f>
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="F57" s="5">
+        <f>F33/(C45*F48)</f>
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="G57" s="5">
+        <f>G33/(C45*G49)</f>
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="H57" s="5">
+        <f>H33/(C45*H50)</f>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="I57" s="5">
+        <f>I33/(C45*I51)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J57" s="5">
+        <f>J33/(C45*J52)</f>
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="K57" s="5">
+        <f>K33/(C45*K53)</f>
+        <v>0.53333333333333321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="53">
+        <f>D34/(D46*D46)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E58" s="5">
+        <f>E34/(D46*E47)</f>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="F58" s="5">
+        <f>F34/(D46*F48)</f>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="G58" s="5">
+        <f>G34/(D46*G49)</f>
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="H58" s="5">
+        <f>H34/(D46*H50)</f>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="I58" s="5">
+        <f>I34/(D46*I51)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J58" s="5">
+        <f>J34/(D46*J52)</f>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="K58" s="5">
+        <f>K34/(D46*K53)</f>
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="53">
+        <f>E35/(E47*E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <f>F35/(E47*F48)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G59" s="54">
+        <f>G35/(E47*G49)</f>
+        <v>0.375</v>
+      </c>
+      <c r="H59" s="54">
+        <f>H35/(E47*H50)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="I59" s="54">
+        <f>I35/(E47*I51)</f>
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="J59" s="5">
+        <f>J35/(E47*J52)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="K59" s="54">
+        <f>K35/(E47*K53)</f>
+        <v>0.3872983346207417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="53">
+        <f>F36/(F48*F48)</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <f>G36/(F48*G49)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="H60" s="5">
+        <f>H36/(F48*H50)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="I60" s="5">
+        <f>I36/(F48*I39)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J60" s="5">
+        <f>J36/(F48*J40)</f>
+        <v>0.140625</v>
+      </c>
+      <c r="K60" s="5">
+        <f>K36/(F48*K53)</f>
+        <v>0.5163977794943222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="53">
+        <f>G37/(G49*G49)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <f>H37/(G49*H50)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="5">
+        <f>I37/(G49*I51)</f>
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="J61" s="5">
+        <f>J37/(G49*J52)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="5">
+        <f>K37/(G49*K53)</f>
+        <v>0.58094750193111255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="53">
+        <f>H38/(H50*H50)</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="5">
+        <f>I38/(H50*I51)</f>
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="J62" s="5">
+        <f>J38/(H50*J52)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="5">
+        <f>K38/(H50*K53)</f>
+        <v>0.45184805705753195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="53">
+        <f>I39/(I51*I51)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J63" s="5">
+        <f>J39/(I51*J52)</f>
+        <v>0.58094750193111255</v>
+      </c>
+      <c r="K63" s="5">
+        <f>K39/(I51*K53)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="53">
+        <f>J40/(J52*J52)</f>
+        <v>1</v>
+      </c>
+      <c r="K64" s="5">
+        <f>K40/(J52*K53)</f>
+        <v>0.58094750193111255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="53">
+        <f>K41/(K53*K53)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <f>SUM(C56:K56)</f>
+        <v>2.3576611154024718</v>
+      </c>
+      <c r="C67">
+        <f>SUM(D57:K57)</f>
+        <v>3.2698250064370415</v>
+      </c>
+      <c r="D67">
+        <f>SUM(E58:K58)</f>
+        <v>2.8677080622071656</v>
+      </c>
+      <c r="E67">
+        <f>SUM(F59:K59)</f>
+        <v>2.6516463916782738</v>
+      </c>
+      <c r="F67">
+        <f>SUM(G60:K60)</f>
+        <v>1.6986894461609889</v>
+      </c>
+      <c r="G67">
+        <f>SUM(H61:K61)</f>
+        <v>2.0973452814254347</v>
+      </c>
+      <c r="H67">
+        <f>SUM(I62:K62)</f>
+        <v>1.468245836551854</v>
+      </c>
+      <c r="I67">
+        <f>SUM(J63:K63)</f>
+        <v>1.1809475019311124</v>
+      </c>
+      <c r="J67">
+        <f>SUM(K64)</f>
+        <v>0.58094750193111255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <f>SUM(B67:J67)/45</f>
+        <v>0.40384480319389898</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6172,6 +6892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7839,6 +8560,7 @@
     <sheetView topLeftCell="A22" workbookViewId="1">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9065,6 +9787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -9082,6 +9805,7 @@
     <sheetView workbookViewId="1">
       <selection activeCell="D5" sqref="D5:D14"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10781,6 +11505,7 @@
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="104" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12446,9 +13171,10 @@
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14629,9 +15355,10 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15846,6 +16573,7 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16050,6 +16778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -16068,6 +16797,7 @@
       <selection activeCell="A4" sqref="A4:E14"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17723,8 +18453,13 @@
   </sheetPr>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="2">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17733,45 +18468,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B1" s="55">
+        <v>1153</v>
+      </c>
+      <c r="B1">
         <f>COUNTIF(B7:B78,0)</f>
         <v>57</v>
       </c>
-      <c r="C1" s="55">
+      <c r="C1">
         <f t="shared" ref="C1:K1" si="0">COUNTIF(C7:C78,0)</f>
         <v>57</v>
       </c>
-      <c r="D1" s="55">
+      <c r="D1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="E1" s="55">
+      <c r="E1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F1" s="55">
+      <c r="F1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G1" s="55">
+      <c r="G1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H1" s="55">
+      <c r="H1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I1" s="55">
+      <c r="I1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J1" s="55">
+      <c r="J1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="K1" s="55">
+      <c r="K1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -17823,43 +18558,43 @@
         <v>685</v>
       </c>
       <c r="B3" s="13">
-        <f>COUNTIF(B7:B78,1)</f>
+        <f t="shared" ref="B3:K3" si="2">COUNTIF(B7:B78,1)</f>
         <v>15</v>
       </c>
       <c r="C3" s="13">
-        <f>COUNTIF(C7:C78,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D3" s="13">
-        <f>COUNTIF(D7:D78,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E3" s="13">
-        <f>COUNTIF(E7:E78,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F3" s="13">
-        <f>COUNTIF(F7:F78,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G3" s="13">
-        <f>COUNTIF(G7:G78,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H3" s="13">
-        <f>COUNTIF(H7:H78,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I3" s="13">
-        <f>COUNTIF(I7:I78,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J3" s="13">
-        <f>COUNTIF(J7:J78,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K3" s="13">
-        <f>COUNTIF(K7:K78,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -17900,7 +18635,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -17978,34 +18713,34 @@
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="55">
-        <v>1</v>
-      </c>
-      <c r="C7" s="55">
-        <v>1</v>
-      </c>
-      <c r="D7" s="55">
-        <v>1</v>
-      </c>
-      <c r="E7" s="55">
-        <v>1</v>
-      </c>
-      <c r="F7" s="55">
-        <v>1</v>
-      </c>
-      <c r="G7" s="55">
-        <v>1</v>
-      </c>
-      <c r="H7" s="55">
-        <v>1</v>
-      </c>
-      <c r="I7" s="55">
-        <v>1</v>
-      </c>
-      <c r="J7" s="55">
-        <v>1</v>
-      </c>
-      <c r="K7" s="55">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
@@ -18021,42 +18756,42 @@
       <c r="A8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="55">
-        <v>1</v>
-      </c>
-      <c r="C8" s="55">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0</v>
-      </c>
-      <c r="E8" s="55">
-        <v>1</v>
-      </c>
-      <c r="F8" s="55">
-        <v>0</v>
-      </c>
-      <c r="G8" s="55">
-        <v>0</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
-        <v>0</v>
-      </c>
-      <c r="J8" s="55">
-        <v>0</v>
-      </c>
-      <c r="K8" s="55">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L71" si="2">COUNT(B8:K8)</f>
+        <f t="shared" ref="L8:L71" si="3">COUNT(B8:K8)</f>
         <v>10</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M71" si="3">L8/10*100</f>
+        <f t="shared" ref="M8:M71" si="4">L8/10*100</f>
         <v>100</v>
       </c>
     </row>
@@ -18064,42 +18799,42 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55">
-        <v>1</v>
-      </c>
-      <c r="C9" s="55">
-        <v>0</v>
-      </c>
-      <c r="D9" s="55">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55">
-        <v>0</v>
-      </c>
-      <c r="F9" s="55">
-        <v>0</v>
-      </c>
-      <c r="G9" s="55">
-        <v>0</v>
-      </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55">
-        <v>0</v>
-      </c>
-      <c r="K9" s="55">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18107,42 +18842,42 @@
       <c r="A10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="55">
-        <v>1</v>
-      </c>
-      <c r="C10" s="55">
-        <v>0</v>
-      </c>
-      <c r="D10" s="55">
-        <v>1</v>
-      </c>
-      <c r="E10" s="55">
-        <v>1</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0</v>
-      </c>
-      <c r="G10" s="55">
-        <v>0</v>
-      </c>
-      <c r="H10" s="55">
-        <v>1</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55">
-        <v>0</v>
-      </c>
-      <c r="K10" s="55">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18150,42 +18885,42 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="55">
-        <v>1</v>
-      </c>
-      <c r="C11" s="55">
-        <v>0</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55">
-        <v>0</v>
-      </c>
-      <c r="G11" s="55">
-        <v>0</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="55">
-        <v>0</v>
-      </c>
-      <c r="K11" s="55">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18193,42 +18928,42 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="55">
-        <v>1</v>
-      </c>
-      <c r="C12" s="55">
-        <v>1</v>
-      </c>
-      <c r="D12" s="55">
-        <v>1</v>
-      </c>
-      <c r="E12" s="55">
-        <v>1</v>
-      </c>
-      <c r="F12" s="55">
-        <v>1</v>
-      </c>
-      <c r="G12" s="55">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55">
-        <v>1</v>
-      </c>
-      <c r="I12" s="55">
-        <v>1</v>
-      </c>
-      <c r="J12" s="55">
-        <v>1</v>
-      </c>
-      <c r="K12" s="55">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18236,42 +18971,42 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="55">
-        <v>1</v>
-      </c>
-      <c r="C13" s="55">
-        <v>0</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55">
-        <v>0</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0</v>
-      </c>
-      <c r="J13" s="55">
-        <v>0</v>
-      </c>
-      <c r="K13" s="55">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18279,42 +19014,42 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="55">
-        <v>1</v>
-      </c>
-      <c r="C14" s="55">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="55">
-        <v>0</v>
-      </c>
-      <c r="H14" s="55">
-        <v>0</v>
-      </c>
-      <c r="I14" s="55">
-        <v>0</v>
-      </c>
-      <c r="J14" s="55">
-        <v>0</v>
-      </c>
-      <c r="K14" s="55">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18322,42 +19057,42 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="55">
-        <v>1</v>
-      </c>
-      <c r="C15" s="55">
-        <v>1</v>
-      </c>
-      <c r="D15" s="55">
-        <v>1</v>
-      </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
-        <v>0</v>
-      </c>
-      <c r="G15" s="55">
-        <v>1</v>
-      </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="55">
-        <v>0</v>
-      </c>
-      <c r="J15" s="55">
-        <v>0</v>
-      </c>
-      <c r="K15" s="55">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18365,42 +19100,42 @@
       <c r="A16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="55">
-        <v>1</v>
-      </c>
-      <c r="C16" s="55">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55">
-        <v>0</v>
-      </c>
-      <c r="H16" s="55">
-        <v>0</v>
-      </c>
-      <c r="I16" s="55">
-        <v>0</v>
-      </c>
-      <c r="J16" s="55">
-        <v>1</v>
-      </c>
-      <c r="K16" s="55">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18408,42 +19143,42 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="55">
-        <v>1</v>
-      </c>
-      <c r="C17" s="55">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0</v>
-      </c>
-      <c r="G17" s="55">
-        <v>0</v>
-      </c>
-      <c r="H17" s="55">
-        <v>0</v>
-      </c>
-      <c r="I17" s="55">
-        <v>0</v>
-      </c>
-      <c r="J17" s="55">
-        <v>0</v>
-      </c>
-      <c r="K17" s="55">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18451,42 +19186,42 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="55">
-        <v>1</v>
-      </c>
-      <c r="C18" s="55">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0</v>
-      </c>
-      <c r="G18" s="55">
-        <v>0</v>
-      </c>
-      <c r="H18" s="55">
-        <v>0</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0</v>
-      </c>
-      <c r="J18" s="55">
-        <v>0</v>
-      </c>
-      <c r="K18" s="55">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18494,42 +19229,42 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="55">
-        <v>1</v>
-      </c>
-      <c r="C19" s="55">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55">
-        <v>0</v>
-      </c>
-      <c r="F19" s="55">
-        <v>0</v>
-      </c>
-      <c r="G19" s="55">
-        <v>0</v>
-      </c>
-      <c r="H19" s="55">
-        <v>0</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0</v>
-      </c>
-      <c r="J19" s="55">
-        <v>0</v>
-      </c>
-      <c r="K19" s="55">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18537,42 +19272,42 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="55">
-        <v>1</v>
-      </c>
-      <c r="C20" s="55">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0</v>
-      </c>
-      <c r="E20" s="55">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55">
-        <v>0</v>
-      </c>
-      <c r="H20" s="55">
-        <v>0</v>
-      </c>
-      <c r="I20" s="55">
-        <v>0</v>
-      </c>
-      <c r="J20" s="55">
-        <v>0</v>
-      </c>
-      <c r="K20" s="55">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18580,42 +19315,42 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="55">
-        <v>1</v>
-      </c>
-      <c r="C21" s="55">
-        <v>1</v>
-      </c>
-      <c r="D21" s="55">
-        <v>1</v>
-      </c>
-      <c r="E21" s="55">
-        <v>1</v>
-      </c>
-      <c r="F21" s="55">
-        <v>1</v>
-      </c>
-      <c r="G21" s="55">
-        <v>1</v>
-      </c>
-      <c r="H21" s="55">
-        <v>1</v>
-      </c>
-      <c r="I21" s="55">
-        <v>1</v>
-      </c>
-      <c r="J21" s="55">
-        <v>1</v>
-      </c>
-      <c r="K21" s="55">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18623,42 +19358,42 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="55">
-        <v>0</v>
-      </c>
-      <c r="C22" s="55">
-        <v>1</v>
-      </c>
-      <c r="D22" s="55">
-        <v>0</v>
-      </c>
-      <c r="E22" s="55">
-        <v>0</v>
-      </c>
-      <c r="F22" s="55">
-        <v>0</v>
-      </c>
-      <c r="G22" s="55">
-        <v>0</v>
-      </c>
-      <c r="H22" s="55">
-        <v>0</v>
-      </c>
-      <c r="I22" s="55">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55">
-        <v>0</v>
-      </c>
-      <c r="K22" s="55">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18666,42 +19401,42 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="55">
-        <v>0</v>
-      </c>
-      <c r="C23" s="55">
-        <v>1</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0</v>
-      </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55">
-        <v>0</v>
-      </c>
-      <c r="K23" s="55">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18709,42 +19444,42 @@
       <c r="A24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="55">
-        <v>0</v>
-      </c>
-      <c r="C24" s="55">
-        <v>1</v>
-      </c>
-      <c r="D24" s="55">
-        <v>1</v>
-      </c>
-      <c r="E24" s="55">
-        <v>1</v>
-      </c>
-      <c r="F24" s="55">
-        <v>1</v>
-      </c>
-      <c r="G24" s="55">
-        <v>1</v>
-      </c>
-      <c r="H24" s="55">
-        <v>1</v>
-      </c>
-      <c r="I24" s="55">
-        <v>1</v>
-      </c>
-      <c r="J24" s="55">
-        <v>1</v>
-      </c>
-      <c r="K24" s="55">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18752,42 +19487,42 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="55">
-        <v>0</v>
-      </c>
-      <c r="C25" s="55">
-        <v>1</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0</v>
-      </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0</v>
-      </c>
-      <c r="J25" s="55">
-        <v>0</v>
-      </c>
-      <c r="K25" s="55">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18795,42 +19530,42 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="55">
-        <v>0</v>
-      </c>
-      <c r="C26" s="55">
-        <v>1</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
-        <v>0</v>
-      </c>
-      <c r="G26" s="55">
-        <v>0</v>
-      </c>
-      <c r="H26" s="55">
-        <v>0</v>
-      </c>
-      <c r="I26" s="55">
-        <v>0</v>
-      </c>
-      <c r="J26" s="55">
-        <v>0</v>
-      </c>
-      <c r="K26" s="55">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18838,42 +19573,42 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="55">
-        <v>0</v>
-      </c>
-      <c r="C27" s="55">
-        <v>1</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0</v>
-      </c>
-      <c r="G27" s="55">
-        <v>0</v>
-      </c>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55">
-        <v>0</v>
-      </c>
-      <c r="K27" s="55">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18881,42 +19616,42 @@
       <c r="A28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="55">
-        <v>0</v>
-      </c>
-      <c r="C28" s="55">
-        <v>1</v>
-      </c>
-      <c r="D28" s="55">
-        <v>0</v>
-      </c>
-      <c r="E28" s="55">
-        <v>0</v>
-      </c>
-      <c r="F28" s="55">
-        <v>0</v>
-      </c>
-      <c r="G28" s="55">
-        <v>0</v>
-      </c>
-      <c r="H28" s="55">
-        <v>0</v>
-      </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="J28" s="55">
-        <v>1</v>
-      </c>
-      <c r="K28" s="55">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18924,42 +19659,42 @@
       <c r="A29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="55">
-        <v>0</v>
-      </c>
-      <c r="C29" s="55">
-        <v>1</v>
-      </c>
-      <c r="D29" s="55">
-        <v>0</v>
-      </c>
-      <c r="E29" s="55">
-        <v>0</v>
-      </c>
-      <c r="F29" s="55">
-        <v>0</v>
-      </c>
-      <c r="G29" s="55">
-        <v>0</v>
-      </c>
-      <c r="H29" s="55">
-        <v>0</v>
-      </c>
-      <c r="I29" s="55">
-        <v>1</v>
-      </c>
-      <c r="J29" s="55">
-        <v>0</v>
-      </c>
-      <c r="K29" s="55">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -18967,42 +19702,42 @@
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="55">
-        <v>0</v>
-      </c>
-      <c r="C30" s="55">
-        <v>1</v>
-      </c>
-      <c r="D30" s="55">
-        <v>1</v>
-      </c>
-      <c r="E30" s="55">
-        <v>1</v>
-      </c>
-      <c r="F30" s="55">
-        <v>1</v>
-      </c>
-      <c r="G30" s="55">
-        <v>1</v>
-      </c>
-      <c r="H30" s="55">
-        <v>1</v>
-      </c>
-      <c r="I30" s="55">
-        <v>1</v>
-      </c>
-      <c r="J30" s="55">
-        <v>1</v>
-      </c>
-      <c r="K30" s="55">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19010,42 +19745,42 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="55">
-        <v>0</v>
-      </c>
-      <c r="C31" s="55">
-        <v>1</v>
-      </c>
-      <c r="D31" s="55">
-        <v>0</v>
-      </c>
-      <c r="E31" s="55">
-        <v>0</v>
-      </c>
-      <c r="F31" s="55">
-        <v>0</v>
-      </c>
-      <c r="G31" s="55">
-        <v>0</v>
-      </c>
-      <c r="H31" s="55">
-        <v>0</v>
-      </c>
-      <c r="I31" s="55">
-        <v>0</v>
-      </c>
-      <c r="J31" s="55">
-        <v>0</v>
-      </c>
-      <c r="K31" s="55">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19053,42 +19788,42 @@
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="55">
-        <v>0</v>
-      </c>
-      <c r="C32" s="55">
-        <v>0</v>
-      </c>
-      <c r="D32" s="55">
-        <v>1</v>
-      </c>
-      <c r="E32" s="55">
-        <v>0</v>
-      </c>
-      <c r="F32" s="55">
-        <v>0</v>
-      </c>
-      <c r="G32" s="55">
-        <v>0</v>
-      </c>
-      <c r="H32" s="55">
-        <v>0</v>
-      </c>
-      <c r="I32" s="55">
-        <v>0</v>
-      </c>
-      <c r="J32" s="55">
-        <v>0</v>
-      </c>
-      <c r="K32" s="55">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19096,42 +19831,42 @@
       <c r="A33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="55">
-        <v>0</v>
-      </c>
-      <c r="C33" s="55">
-        <v>0</v>
-      </c>
-      <c r="D33" s="55">
-        <v>1</v>
-      </c>
-      <c r="E33" s="55">
-        <v>0</v>
-      </c>
-      <c r="F33" s="55">
-        <v>0</v>
-      </c>
-      <c r="G33" s="55">
-        <v>1</v>
-      </c>
-      <c r="H33" s="55">
-        <v>0</v>
-      </c>
-      <c r="I33" s="55">
-        <v>0</v>
-      </c>
-      <c r="J33" s="55">
-        <v>0</v>
-      </c>
-      <c r="K33" s="55">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19139,42 +19874,42 @@
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="55">
-        <v>0</v>
-      </c>
-      <c r="C34" s="55">
-        <v>0</v>
-      </c>
-      <c r="D34" s="55">
-        <v>1</v>
-      </c>
-      <c r="E34" s="55">
-        <v>0</v>
-      </c>
-      <c r="F34" s="55">
-        <v>0</v>
-      </c>
-      <c r="G34" s="55">
-        <v>0</v>
-      </c>
-      <c r="H34" s="55">
-        <v>0</v>
-      </c>
-      <c r="I34" s="55">
-        <v>0</v>
-      </c>
-      <c r="J34" s="55">
-        <v>0</v>
-      </c>
-      <c r="K34" s="55">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19182,42 +19917,42 @@
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="55">
-        <v>0</v>
-      </c>
-      <c r="C35" s="55">
-        <v>0</v>
-      </c>
-      <c r="D35" s="55">
-        <v>1</v>
-      </c>
-      <c r="E35" s="55">
-        <v>0</v>
-      </c>
-      <c r="F35" s="55">
-        <v>0</v>
-      </c>
-      <c r="G35" s="55">
-        <v>0</v>
-      </c>
-      <c r="H35" s="55">
-        <v>0</v>
-      </c>
-      <c r="I35" s="55">
-        <v>0</v>
-      </c>
-      <c r="J35" s="55">
-        <v>0</v>
-      </c>
-      <c r="K35" s="55">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19225,42 +19960,42 @@
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="55">
-        <v>0</v>
-      </c>
-      <c r="C36" s="55">
-        <v>0</v>
-      </c>
-      <c r="D36" s="55">
-        <v>1</v>
-      </c>
-      <c r="E36" s="55">
-        <v>0</v>
-      </c>
-      <c r="F36" s="55">
-        <v>0</v>
-      </c>
-      <c r="G36" s="55">
-        <v>0</v>
-      </c>
-      <c r="H36" s="55">
-        <v>0</v>
-      </c>
-      <c r="I36" s="55">
-        <v>0</v>
-      </c>
-      <c r="J36" s="55">
-        <v>0</v>
-      </c>
-      <c r="K36" s="55">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19268,42 +20003,42 @@
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="55">
-        <v>0</v>
-      </c>
-      <c r="C37" s="55">
-        <v>0</v>
-      </c>
-      <c r="D37" s="55">
-        <v>1</v>
-      </c>
-      <c r="E37" s="55">
-        <v>0</v>
-      </c>
-      <c r="F37" s="55">
-        <v>0</v>
-      </c>
-      <c r="G37" s="55">
-        <v>0</v>
-      </c>
-      <c r="H37" s="55">
-        <v>0</v>
-      </c>
-      <c r="I37" s="55">
-        <v>0</v>
-      </c>
-      <c r="J37" s="55">
-        <v>0</v>
-      </c>
-      <c r="K37" s="55">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19311,42 +20046,42 @@
       <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="55">
-        <v>0</v>
-      </c>
-      <c r="C38" s="55">
-        <v>0</v>
-      </c>
-      <c r="D38" s="55">
-        <v>1</v>
-      </c>
-      <c r="E38" s="55">
-        <v>0</v>
-      </c>
-      <c r="F38" s="55">
-        <v>0</v>
-      </c>
-      <c r="G38" s="55">
-        <v>0</v>
-      </c>
-      <c r="H38" s="55">
-        <v>0</v>
-      </c>
-      <c r="I38" s="55">
-        <v>0</v>
-      </c>
-      <c r="J38" s="55">
-        <v>0</v>
-      </c>
-      <c r="K38" s="55">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19354,42 +20089,42 @@
       <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="55">
-        <v>0</v>
-      </c>
-      <c r="C39" s="55">
-        <v>0</v>
-      </c>
-      <c r="D39" s="55">
-        <v>0</v>
-      </c>
-      <c r="E39" s="55">
-        <v>1</v>
-      </c>
-      <c r="F39" s="55">
-        <v>0</v>
-      </c>
-      <c r="G39" s="55">
-        <v>0</v>
-      </c>
-      <c r="H39" s="55">
-        <v>0</v>
-      </c>
-      <c r="I39" s="55">
-        <v>0</v>
-      </c>
-      <c r="J39" s="55">
-        <v>0</v>
-      </c>
-      <c r="K39" s="55">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19397,42 +20132,42 @@
       <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="55">
-        <v>0</v>
-      </c>
-      <c r="C40" s="55">
-        <v>0</v>
-      </c>
-      <c r="D40" s="55">
-        <v>0</v>
-      </c>
-      <c r="E40" s="55">
-        <v>1</v>
-      </c>
-      <c r="F40" s="55">
-        <v>0</v>
-      </c>
-      <c r="G40" s="55">
-        <v>0</v>
-      </c>
-      <c r="H40" s="55">
-        <v>0</v>
-      </c>
-      <c r="I40" s="55">
-        <v>0</v>
-      </c>
-      <c r="J40" s="55">
-        <v>0</v>
-      </c>
-      <c r="K40" s="55">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19440,42 +20175,42 @@
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="55">
-        <v>0</v>
-      </c>
-      <c r="C41" s="55">
-        <v>0</v>
-      </c>
-      <c r="D41" s="55">
-        <v>0</v>
-      </c>
-      <c r="E41" s="55">
-        <v>1</v>
-      </c>
-      <c r="F41" s="55">
-        <v>0</v>
-      </c>
-      <c r="G41" s="55">
-        <v>0</v>
-      </c>
-      <c r="H41" s="55">
-        <v>0</v>
-      </c>
-      <c r="I41" s="55">
-        <v>0</v>
-      </c>
-      <c r="J41" s="55">
-        <v>0</v>
-      </c>
-      <c r="K41" s="55">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19483,42 +20218,42 @@
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="55">
-        <v>0</v>
-      </c>
-      <c r="C42" s="55">
-        <v>0</v>
-      </c>
-      <c r="D42" s="55">
-        <v>0</v>
-      </c>
-      <c r="E42" s="55">
-        <v>1</v>
-      </c>
-      <c r="F42" s="55">
-        <v>0</v>
-      </c>
-      <c r="G42" s="55">
-        <v>0</v>
-      </c>
-      <c r="H42" s="55">
-        <v>0</v>
-      </c>
-      <c r="I42" s="55">
-        <v>0</v>
-      </c>
-      <c r="J42" s="55">
-        <v>0</v>
-      </c>
-      <c r="K42" s="55">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19526,42 +20261,42 @@
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="55">
-        <v>0</v>
-      </c>
-      <c r="C43" s="55">
-        <v>0</v>
-      </c>
-      <c r="D43" s="55">
-        <v>0</v>
-      </c>
-      <c r="E43" s="55">
-        <v>1</v>
-      </c>
-      <c r="F43" s="55">
-        <v>0</v>
-      </c>
-      <c r="G43" s="55">
-        <v>0</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="55">
-        <v>0</v>
-      </c>
-      <c r="J43" s="55">
-        <v>0</v>
-      </c>
-      <c r="K43" s="55">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19569,42 +20304,42 @@
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="55">
-        <v>0</v>
-      </c>
-      <c r="C44" s="55">
-        <v>0</v>
-      </c>
-      <c r="D44" s="55">
-        <v>0</v>
-      </c>
-      <c r="E44" s="55">
-        <v>1</v>
-      </c>
-      <c r="F44" s="55">
-        <v>0</v>
-      </c>
-      <c r="G44" s="55">
-        <v>0</v>
-      </c>
-      <c r="H44" s="55">
-        <v>0</v>
-      </c>
-      <c r="I44" s="55">
-        <v>0</v>
-      </c>
-      <c r="J44" s="55">
-        <v>0</v>
-      </c>
-      <c r="K44" s="55">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19612,42 +20347,42 @@
       <c r="A45" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="55">
-        <v>0</v>
-      </c>
-      <c r="C45" s="55">
-        <v>0</v>
-      </c>
-      <c r="D45" s="55">
-        <v>0</v>
-      </c>
-      <c r="E45" s="55">
-        <v>1</v>
-      </c>
-      <c r="F45" s="55">
-        <v>1</v>
-      </c>
-      <c r="G45" s="55">
-        <v>1</v>
-      </c>
-      <c r="H45" s="55">
-        <v>1</v>
-      </c>
-      <c r="I45" s="55">
-        <v>1</v>
-      </c>
-      <c r="J45" s="55">
-        <v>1</v>
-      </c>
-      <c r="K45" s="55">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19655,42 +20390,42 @@
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="55">
-        <v>0</v>
-      </c>
-      <c r="C46" s="55">
-        <v>0</v>
-      </c>
-      <c r="D46" s="55">
-        <v>0</v>
-      </c>
-      <c r="E46" s="55">
-        <v>1</v>
-      </c>
-      <c r="F46" s="55">
-        <v>0</v>
-      </c>
-      <c r="G46" s="55">
-        <v>0</v>
-      </c>
-      <c r="H46" s="55">
-        <v>0</v>
-      </c>
-      <c r="I46" s="55">
-        <v>0</v>
-      </c>
-      <c r="J46" s="55">
-        <v>0</v>
-      </c>
-      <c r="K46" s="55">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19698,42 +20433,42 @@
       <c r="A47" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="55">
-        <v>0</v>
-      </c>
-      <c r="C47" s="55">
-        <v>0</v>
-      </c>
-      <c r="D47" s="55">
-        <v>0</v>
-      </c>
-      <c r="E47" s="55">
-        <v>0</v>
-      </c>
-      <c r="F47" s="55">
-        <v>1</v>
-      </c>
-      <c r="G47" s="55">
-        <v>0</v>
-      </c>
-      <c r="H47" s="55">
-        <v>0</v>
-      </c>
-      <c r="I47" s="55">
-        <v>0</v>
-      </c>
-      <c r="J47" s="55">
-        <v>0</v>
-      </c>
-      <c r="K47" s="55">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19741,42 +20476,42 @@
       <c r="A48" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="55">
-        <v>0</v>
-      </c>
-      <c r="C48" s="55">
-        <v>0</v>
-      </c>
-      <c r="D48" s="55">
-        <v>0</v>
-      </c>
-      <c r="E48" s="55">
-        <v>0</v>
-      </c>
-      <c r="F48" s="55">
-        <v>1</v>
-      </c>
-      <c r="G48" s="55">
-        <v>0</v>
-      </c>
-      <c r="H48" s="55">
-        <v>0</v>
-      </c>
-      <c r="I48" s="55">
-        <v>0</v>
-      </c>
-      <c r="J48" s="55">
-        <v>0</v>
-      </c>
-      <c r="K48" s="55">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19784,42 +20519,42 @@
       <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="55">
-        <v>0</v>
-      </c>
-      <c r="C49" s="55">
-        <v>0</v>
-      </c>
-      <c r="D49" s="55">
-        <v>0</v>
-      </c>
-      <c r="E49" s="55">
-        <v>0</v>
-      </c>
-      <c r="F49" s="55">
-        <v>0</v>
-      </c>
-      <c r="G49" s="55">
-        <v>0</v>
-      </c>
-      <c r="H49" s="55">
-        <v>1</v>
-      </c>
-      <c r="I49" s="55">
-        <v>0</v>
-      </c>
-      <c r="J49" s="55">
-        <v>0</v>
-      </c>
-      <c r="K49" s="55">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19827,42 +20562,42 @@
       <c r="A50" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="55">
-        <v>0</v>
-      </c>
-      <c r="C50" s="55">
-        <v>0</v>
-      </c>
-      <c r="D50" s="55">
-        <v>0</v>
-      </c>
-      <c r="E50" s="55">
-        <v>0</v>
-      </c>
-      <c r="F50" s="55">
-        <v>1</v>
-      </c>
-      <c r="G50" s="55">
-        <v>0</v>
-      </c>
-      <c r="H50" s="55">
-        <v>0</v>
-      </c>
-      <c r="I50" s="55">
-        <v>0</v>
-      </c>
-      <c r="J50" s="55">
-        <v>0</v>
-      </c>
-      <c r="K50" s="55">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19870,42 +20605,42 @@
       <c r="A51" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="55">
-        <v>0</v>
-      </c>
-      <c r="C51" s="55">
-        <v>0</v>
-      </c>
-      <c r="D51" s="55">
-        <v>0</v>
-      </c>
-      <c r="E51" s="55">
-        <v>0</v>
-      </c>
-      <c r="F51" s="55">
-        <v>1</v>
-      </c>
-      <c r="G51" s="55">
-        <v>0</v>
-      </c>
-      <c r="H51" s="55">
-        <v>0</v>
-      </c>
-      <c r="I51" s="55">
-        <v>0</v>
-      </c>
-      <c r="J51" s="55">
-        <v>0</v>
-      </c>
-      <c r="K51" s="55">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19913,42 +20648,42 @@
       <c r="A52" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="55">
-        <v>0</v>
-      </c>
-      <c r="C52" s="55">
-        <v>0</v>
-      </c>
-      <c r="D52" s="55">
-        <v>0</v>
-      </c>
-      <c r="E52" s="55">
-        <v>0</v>
-      </c>
-      <c r="F52" s="55">
-        <v>1</v>
-      </c>
-      <c r="G52" s="55">
-        <v>0</v>
-      </c>
-      <c r="H52" s="55">
-        <v>0</v>
-      </c>
-      <c r="I52" s="55">
-        <v>0</v>
-      </c>
-      <c r="J52" s="55">
-        <v>0</v>
-      </c>
-      <c r="K52" s="55">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19956,42 +20691,42 @@
       <c r="A53" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="55">
-        <v>0</v>
-      </c>
-      <c r="C53" s="55">
-        <v>0</v>
-      </c>
-      <c r="D53" s="55">
-        <v>0</v>
-      </c>
-      <c r="E53" s="55">
-        <v>1</v>
-      </c>
-      <c r="F53" s="55">
-        <v>1</v>
-      </c>
-      <c r="G53" s="55">
-        <v>0</v>
-      </c>
-      <c r="H53" s="55">
-        <v>1</v>
-      </c>
-      <c r="I53" s="55">
-        <v>1</v>
-      </c>
-      <c r="J53" s="55">
-        <v>1</v>
-      </c>
-      <c r="K53" s="55">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -19999,42 +20734,42 @@
       <c r="A54" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="55">
-        <v>0</v>
-      </c>
-      <c r="C54" s="55">
-        <v>0</v>
-      </c>
-      <c r="D54" s="55">
-        <v>0</v>
-      </c>
-      <c r="E54" s="55">
-        <v>0</v>
-      </c>
-      <c r="F54" s="55">
-        <v>1</v>
-      </c>
-      <c r="G54" s="55">
-        <v>0</v>
-      </c>
-      <c r="H54" s="55">
-        <v>0</v>
-      </c>
-      <c r="I54" s="55">
-        <v>0</v>
-      </c>
-      <c r="J54" s="55">
-        <v>0</v>
-      </c>
-      <c r="K54" s="55">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20042,42 +20777,42 @@
       <c r="A55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="55">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20085,42 +20820,42 @@
       <c r="A56" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="55">
-        <v>0</v>
-      </c>
-      <c r="C56" s="55">
-        <v>0</v>
-      </c>
-      <c r="D56" s="55">
-        <v>0</v>
-      </c>
-      <c r="E56" s="55">
-        <v>0</v>
-      </c>
-      <c r="F56" s="55">
-        <v>1</v>
-      </c>
-      <c r="G56" s="55">
-        <v>1</v>
-      </c>
-      <c r="H56" s="55">
-        <v>0</v>
-      </c>
-      <c r="I56" s="55">
-        <v>1</v>
-      </c>
-      <c r="J56" s="55">
-        <v>1</v>
-      </c>
-      <c r="K56" s="55">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20128,42 +20863,42 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="55">
-        <v>0</v>
-      </c>
-      <c r="C57" s="55">
-        <v>0</v>
-      </c>
-      <c r="D57" s="55">
-        <v>0</v>
-      </c>
-      <c r="E57" s="55">
-        <v>0</v>
-      </c>
-      <c r="F57" s="55">
-        <v>0</v>
-      </c>
-      <c r="G57" s="55">
-        <v>1</v>
-      </c>
-      <c r="H57" s="55">
-        <v>0</v>
-      </c>
-      <c r="I57" s="55">
-        <v>0</v>
-      </c>
-      <c r="J57" s="55">
-        <v>0</v>
-      </c>
-      <c r="K57" s="55">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20171,42 +20906,42 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="55">
-        <v>0</v>
-      </c>
-      <c r="C58" s="55">
-        <v>0</v>
-      </c>
-      <c r="D58" s="55">
-        <v>0</v>
-      </c>
-      <c r="E58" s="55">
-        <v>0</v>
-      </c>
-      <c r="F58" s="55">
-        <v>0</v>
-      </c>
-      <c r="G58" s="55">
-        <v>1</v>
-      </c>
-      <c r="H58" s="55">
-        <v>0</v>
-      </c>
-      <c r="I58" s="55">
-        <v>1</v>
-      </c>
-      <c r="J58" s="55">
-        <v>0</v>
-      </c>
-      <c r="K58" s="55">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20214,42 +20949,42 @@
       <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="55">
-        <v>0</v>
-      </c>
-      <c r="C59" s="55">
-        <v>0</v>
-      </c>
-      <c r="D59" s="55">
-        <v>0</v>
-      </c>
-      <c r="E59" s="55">
-        <v>0</v>
-      </c>
-      <c r="F59" s="55">
-        <v>0</v>
-      </c>
-      <c r="G59" s="55">
-        <v>1</v>
-      </c>
-      <c r="H59" s="55">
-        <v>0</v>
-      </c>
-      <c r="I59" s="55">
-        <v>0</v>
-      </c>
-      <c r="J59" s="55">
-        <v>0</v>
-      </c>
-      <c r="K59" s="55">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20257,42 +20992,42 @@
       <c r="A60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="55">
-        <v>0</v>
-      </c>
-      <c r="C60" s="55">
-        <v>0</v>
-      </c>
-      <c r="D60" s="55">
-        <v>0</v>
-      </c>
-      <c r="E60" s="55">
-        <v>0</v>
-      </c>
-      <c r="F60" s="55">
-        <v>0</v>
-      </c>
-      <c r="G60" s="55">
-        <v>1</v>
-      </c>
-      <c r="H60" s="55">
-        <v>1</v>
-      </c>
-      <c r="I60" s="55">
-        <v>0</v>
-      </c>
-      <c r="J60" s="55">
-        <v>0</v>
-      </c>
-      <c r="K60" s="55">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20300,42 +21035,42 @@
       <c r="A61" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="55">
-        <v>0</v>
-      </c>
-      <c r="C61" s="55">
-        <v>0</v>
-      </c>
-      <c r="D61" s="55">
-        <v>0</v>
-      </c>
-      <c r="E61" s="55">
-        <v>0</v>
-      </c>
-      <c r="F61" s="55">
-        <v>0</v>
-      </c>
-      <c r="G61" s="55">
-        <v>0</v>
-      </c>
-      <c r="H61" s="55">
-        <v>0</v>
-      </c>
-      <c r="I61" s="55">
-        <v>0</v>
-      </c>
-      <c r="J61" s="55">
-        <v>1</v>
-      </c>
-      <c r="K61" s="55">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20343,42 +21078,42 @@
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="55">
-        <v>0</v>
-      </c>
-      <c r="C62" s="55">
-        <v>1</v>
-      </c>
-      <c r="D62" s="55">
-        <v>0</v>
-      </c>
-      <c r="E62" s="55">
-        <v>0</v>
-      </c>
-      <c r="F62" s="55">
-        <v>0</v>
-      </c>
-      <c r="G62" s="55">
-        <v>1</v>
-      </c>
-      <c r="H62" s="55">
-        <v>1</v>
-      </c>
-      <c r="I62" s="55">
-        <v>0</v>
-      </c>
-      <c r="J62" s="55">
-        <v>1</v>
-      </c>
-      <c r="K62" s="55">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20386,42 +21121,42 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="55">
-        <v>0</v>
-      </c>
-      <c r="C63" s="55">
-        <v>0</v>
-      </c>
-      <c r="D63" s="55">
-        <v>0</v>
-      </c>
-      <c r="E63" s="55">
-        <v>0</v>
-      </c>
-      <c r="F63" s="55">
-        <v>0</v>
-      </c>
-      <c r="G63" s="55">
-        <v>1</v>
-      </c>
-      <c r="H63" s="55">
-        <v>0</v>
-      </c>
-      <c r="I63" s="55">
-        <v>0</v>
-      </c>
-      <c r="J63" s="55">
-        <v>0</v>
-      </c>
-      <c r="K63" s="55">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20429,42 +21164,42 @@
       <c r="A64" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="55">
-        <v>0</v>
-      </c>
-      <c r="C64" s="55">
-        <v>0</v>
-      </c>
-      <c r="D64" s="55">
-        <v>0</v>
-      </c>
-      <c r="E64" s="55">
-        <v>0</v>
-      </c>
-      <c r="F64" s="55">
-        <v>0</v>
-      </c>
-      <c r="G64" s="55">
-        <v>0</v>
-      </c>
-      <c r="H64" s="55">
-        <v>1</v>
-      </c>
-      <c r="I64" s="55">
-        <v>1</v>
-      </c>
-      <c r="J64" s="55">
-        <v>0</v>
-      </c>
-      <c r="K64" s="55">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20472,42 +21207,42 @@
       <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="55">
-        <v>0</v>
-      </c>
-      <c r="C65" s="55">
-        <v>0</v>
-      </c>
-      <c r="D65" s="55">
-        <v>0</v>
-      </c>
-      <c r="E65" s="55">
-        <v>0</v>
-      </c>
-      <c r="F65" s="55">
-        <v>0</v>
-      </c>
-      <c r="G65" s="55">
-        <v>0</v>
-      </c>
-      <c r="H65" s="55">
-        <v>1</v>
-      </c>
-      <c r="I65" s="55">
-        <v>0</v>
-      </c>
-      <c r="J65" s="55">
-        <v>0</v>
-      </c>
-      <c r="K65" s="55">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20515,42 +21250,42 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="55">
-        <v>0</v>
-      </c>
-      <c r="C66" s="55">
-        <v>0</v>
-      </c>
-      <c r="D66" s="55">
-        <v>0</v>
-      </c>
-      <c r="E66" s="55">
-        <v>0</v>
-      </c>
-      <c r="F66" s="55">
-        <v>0</v>
-      </c>
-      <c r="G66" s="55">
-        <v>1</v>
-      </c>
-      <c r="H66" s="55">
-        <v>0</v>
-      </c>
-      <c r="I66" s="55">
-        <v>0</v>
-      </c>
-      <c r="J66" s="55">
-        <v>0</v>
-      </c>
-      <c r="K66" s="55">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20558,42 +21293,42 @@
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="55">
-        <v>0</v>
-      </c>
-      <c r="C67" s="55">
-        <v>0</v>
-      </c>
-      <c r="D67" s="55">
-        <v>0</v>
-      </c>
-      <c r="E67" s="55">
-        <v>0</v>
-      </c>
-      <c r="F67" s="55">
-        <v>0</v>
-      </c>
-      <c r="G67" s="55">
-        <v>0</v>
-      </c>
-      <c r="H67" s="55">
-        <v>1</v>
-      </c>
-      <c r="I67" s="55">
-        <v>0</v>
-      </c>
-      <c r="J67" s="55">
-        <v>0</v>
-      </c>
-      <c r="K67" s="55">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20601,42 +21336,42 @@
       <c r="A68" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="55">
-        <v>0</v>
-      </c>
-      <c r="C68" s="55">
-        <v>0</v>
-      </c>
-      <c r="D68" s="55">
-        <v>0</v>
-      </c>
-      <c r="E68" s="55">
-        <v>0</v>
-      </c>
-      <c r="F68" s="55">
-        <v>0</v>
-      </c>
-      <c r="G68" s="55">
-        <v>0</v>
-      </c>
-      <c r="H68" s="55">
-        <v>1</v>
-      </c>
-      <c r="I68" s="55">
-        <v>0</v>
-      </c>
-      <c r="J68" s="55">
-        <v>0</v>
-      </c>
-      <c r="K68" s="55">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20644,42 +21379,42 @@
       <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="55">
-        <v>0</v>
-      </c>
-      <c r="C69" s="55">
-        <v>0</v>
-      </c>
-      <c r="D69" s="55">
-        <v>0</v>
-      </c>
-      <c r="E69" s="55">
-        <v>0</v>
-      </c>
-      <c r="F69" s="55">
-        <v>0</v>
-      </c>
-      <c r="G69" s="55">
-        <v>0</v>
-      </c>
-      <c r="H69" s="55">
-        <v>0</v>
-      </c>
-      <c r="I69" s="55">
-        <v>1</v>
-      </c>
-      <c r="J69" s="55">
-        <v>0</v>
-      </c>
-      <c r="K69" s="55">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20687,42 +21422,42 @@
       <c r="A70" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="55">
-        <v>0</v>
-      </c>
-      <c r="C70" s="55">
-        <v>0</v>
-      </c>
-      <c r="D70" s="55">
-        <v>0</v>
-      </c>
-      <c r="E70" s="55">
-        <v>0</v>
-      </c>
-      <c r="F70" s="55">
-        <v>0</v>
-      </c>
-      <c r="G70" s="55">
-        <v>0</v>
-      </c>
-      <c r="H70" s="55">
-        <v>0</v>
-      </c>
-      <c r="I70" s="55">
-        <v>1</v>
-      </c>
-      <c r="J70" s="55">
-        <v>0</v>
-      </c>
-      <c r="K70" s="55">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20730,42 +21465,42 @@
       <c r="A71" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="55">
-        <v>0</v>
-      </c>
-      <c r="C71" s="55">
-        <v>0</v>
-      </c>
-      <c r="D71" s="55">
-        <v>0</v>
-      </c>
-      <c r="E71" s="55">
-        <v>0</v>
-      </c>
-      <c r="F71" s="55">
-        <v>1</v>
-      </c>
-      <c r="G71" s="55">
-        <v>0</v>
-      </c>
-      <c r="H71" s="55">
-        <v>0</v>
-      </c>
-      <c r="I71" s="55">
-        <v>1</v>
-      </c>
-      <c r="J71" s="55">
-        <v>0</v>
-      </c>
-      <c r="K71" s="55">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -20773,42 +21508,42 @@
       <c r="A72" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="55">
-        <v>0</v>
-      </c>
-      <c r="C72" s="55">
-        <v>0</v>
-      </c>
-      <c r="D72" s="55">
-        <v>0</v>
-      </c>
-      <c r="E72" s="55">
-        <v>0</v>
-      </c>
-      <c r="F72" s="55">
-        <v>0</v>
-      </c>
-      <c r="G72" s="55">
-        <v>0</v>
-      </c>
-      <c r="H72" s="55">
-        <v>0</v>
-      </c>
-      <c r="I72" s="55">
-        <v>0</v>
-      </c>
-      <c r="J72" s="55">
-        <v>1</v>
-      </c>
-      <c r="K72" s="55">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L96" si="4">COUNT(B72:K72)</f>
+        <f t="shared" ref="L72:L78" si="5">COUNT(B72:K72)</f>
         <v>10</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M78" si="5">L72/10*100</f>
+        <f t="shared" ref="M72:M78" si="6">L72/10*100</f>
         <v>100</v>
       </c>
     </row>
@@ -20816,42 +21551,42 @@
       <c r="A73" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="55">
-        <v>0</v>
-      </c>
-      <c r="C73" s="55">
-        <v>0</v>
-      </c>
-      <c r="D73" s="55">
-        <v>0</v>
-      </c>
-      <c r="E73" s="55">
-        <v>0</v>
-      </c>
-      <c r="F73" s="55">
-        <v>0</v>
-      </c>
-      <c r="G73" s="55">
-        <v>0</v>
-      </c>
-      <c r="H73" s="55">
-        <v>0</v>
-      </c>
-      <c r="I73" s="55">
-        <v>0</v>
-      </c>
-      <c r="J73" s="55">
-        <v>1</v>
-      </c>
-      <c r="K73" s="55">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -20859,42 +21594,42 @@
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="55">
-        <v>0</v>
-      </c>
-      <c r="C74" s="55">
-        <v>0</v>
-      </c>
-      <c r="D74" s="55">
-        <v>0</v>
-      </c>
-      <c r="E74" s="55">
-        <v>0</v>
-      </c>
-      <c r="F74" s="55">
-        <v>0</v>
-      </c>
-      <c r="G74" s="55">
-        <v>0</v>
-      </c>
-      <c r="H74" s="55">
-        <v>0</v>
-      </c>
-      <c r="I74" s="55">
-        <v>0</v>
-      </c>
-      <c r="J74" s="55">
-        <v>1</v>
-      </c>
-      <c r="K74" s="55">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -20902,42 +21637,42 @@
       <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="55">
-        <v>0</v>
-      </c>
-      <c r="C75" s="55">
-        <v>0</v>
-      </c>
-      <c r="D75" s="55">
-        <v>0</v>
-      </c>
-      <c r="E75" s="55">
-        <v>0</v>
-      </c>
-      <c r="F75" s="55">
-        <v>0</v>
-      </c>
-      <c r="G75" s="55">
-        <v>0</v>
-      </c>
-      <c r="H75" s="55">
-        <v>0</v>
-      </c>
-      <c r="I75" s="55">
-        <v>0</v>
-      </c>
-      <c r="J75" s="55">
-        <v>0</v>
-      </c>
-      <c r="K75" s="55">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>1</v>
       </c>
       <c r="L75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -20945,42 +21680,42 @@
       <c r="A76" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="55">
-        <v>0</v>
-      </c>
-      <c r="C76" s="55">
-        <v>0</v>
-      </c>
-      <c r="D76" s="55">
-        <v>0</v>
-      </c>
-      <c r="E76" s="55">
-        <v>0</v>
-      </c>
-      <c r="F76" s="55">
-        <v>0</v>
-      </c>
-      <c r="G76" s="55">
-        <v>0</v>
-      </c>
-      <c r="H76" s="55">
-        <v>0</v>
-      </c>
-      <c r="I76" s="55">
-        <v>0</v>
-      </c>
-      <c r="J76" s="55">
-        <v>0</v>
-      </c>
-      <c r="K76" s="55">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -20988,42 +21723,42 @@
       <c r="A77" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="55">
-        <v>0</v>
-      </c>
-      <c r="C77" s="55">
-        <v>0</v>
-      </c>
-      <c r="D77" s="55">
-        <v>0</v>
-      </c>
-      <c r="E77" s="55">
-        <v>0</v>
-      </c>
-      <c r="F77" s="55">
-        <v>0</v>
-      </c>
-      <c r="G77" s="55">
-        <v>0</v>
-      </c>
-      <c r="H77" s="55">
-        <v>0</v>
-      </c>
-      <c r="I77" s="55">
-        <v>0</v>
-      </c>
-      <c r="J77" s="55">
-        <v>0</v>
-      </c>
-      <c r="K77" s="55">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <v>1</v>
       </c>
       <c r="L77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -21031,42 +21766,42 @@
       <c r="A78" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="55">
-        <v>0</v>
-      </c>
-      <c r="C78" s="55">
-        <v>0</v>
-      </c>
-      <c r="D78" s="55">
-        <v>0</v>
-      </c>
-      <c r="E78" s="55">
-        <v>0</v>
-      </c>
-      <c r="F78" s="55">
-        <v>0</v>
-      </c>
-      <c r="G78" s="55">
-        <v>0</v>
-      </c>
-      <c r="H78" s="55">
-        <v>0</v>
-      </c>
-      <c r="I78" s="55">
-        <v>0</v>
-      </c>
-      <c r="J78" s="55">
-        <v>0</v>
-      </c>
-      <c r="K78" s="55">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>1</v>
       </c>
       <c r="L78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -21076,14 +21811,14 @@
     <cfRule type="duplicateValues" dxfId="45" priority="3"/>
     <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThanOrEqual">
-      <formula>50</formula>
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21098,9 +21833,10 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="1">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="1">
       <selection activeCell="B63" activeCellId="3" sqref="B65 B61 B58 B63"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21190,7 +21926,7 @@
       <c r="G4" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="52" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="2"/>
@@ -21200,13 +21936,13 @@
       <c r="A5" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8">
         <v>0.4375</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="52" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="8">
@@ -21244,7 +21980,7 @@
       <c r="A7" s="8">
         <v>0.5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="8">
@@ -21256,7 +21992,7 @@
       <c r="G7" s="8">
         <v>0.5</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="52" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="2"/>
@@ -21272,7 +22008,7 @@
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="8">
@@ -21310,7 +22046,7 @@
       <c r="A10" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="8">
@@ -21322,7 +22058,7 @@
       <c r="G10" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="52" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="2"/>
@@ -21338,7 +22074,7 @@
       <c r="D11" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8">
@@ -21376,19 +22112,19 @@
       <c r="A13" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8">
         <v>0.65625</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="52" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="52" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="2"/>
@@ -21432,7 +22168,7 @@
       <c r="G15" s="8">
         <v>0.70138888888888884</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="52" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="2"/>
@@ -21546,19 +22282,19 @@
       <c r="A22" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="52" t="s">
         <v>89</v>
       </c>
       <c r="G22" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="52" t="s">
         <v>31</v>
       </c>
       <c r="J22" s="2"/>
@@ -21609,19 +22345,19 @@
       <c r="A25" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="2"/>
@@ -21672,19 +22408,19 @@
       <c r="A28" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="52" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="52" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="2"/>
@@ -21714,19 +22450,19 @@
       <c r="A30" s="8">
         <v>0.65625</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="52" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="52" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="2"/>
@@ -21777,19 +22513,19 @@
       <c r="A33" s="8">
         <v>0.70138888888888884</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="52" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="52" t="s">
         <v>69</v>
       </c>
       <c r="J33" s="2"/>
@@ -21894,19 +22630,19 @@
       <c r="A40" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="52" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="52" t="s">
         <v>89</v>
       </c>
     </row>
@@ -21954,19 +22690,19 @@
       <c r="A43" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -22000,7 +22736,7 @@
       <c r="D45" s="8">
         <v>0.59375</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="52" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="8">
@@ -22014,7 +22750,7 @@
       <c r="A46" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="52" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="8">
@@ -22040,7 +22776,7 @@
       <c r="D47" s="8">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="52" t="s">
         <v>37</v>
       </c>
       <c r="G47" s="8">
@@ -22054,7 +22790,7 @@
       <c r="A48" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="8">
@@ -22066,7 +22802,7 @@
       <c r="G48" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -22080,7 +22816,7 @@
       <c r="D49" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="52" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="8">
@@ -22114,7 +22850,7 @@
       <c r="A51" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="52" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="10">
@@ -22126,7 +22862,7 @@
       <c r="G51" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H51" s="54" t="s">
+      <c r="H51" s="52" t="s">
         <v>69</v>
       </c>
     </row>
@@ -22179,7 +22915,7 @@
       <c r="A58" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="52" t="s">
         <v>89</v>
       </c>
     </row>
@@ -22203,7 +22939,7 @@
       <c r="A61" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -22219,7 +22955,7 @@
       <c r="A63" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -22235,7 +22971,7 @@
       <c r="A65" s="8">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -22283,8 +23019,11 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22415,7 +23154,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
@@ -23896,14 +24635,14 @@
     <cfRule type="duplicateValues" dxfId="41" priority="41"/>
     <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThanOrEqual">
-      <formula>50</formula>
+  <conditionalFormatting sqref="B1:K1">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:K1">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23919,6 +24658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -30323,6 +31063,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -30339,6 +31080,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:E14"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Scripts/Evaluation files/Evaluation Overview.xlsx
+++ b/Scripts/Evaluation files/Evaluation Overview.xlsx
@@ -8,11 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leech\Downloads\00. School\On Github\NUS-Capstone\Scripts\Evaluation files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54377184-5222-474F-81B5-467255B9E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE2BA9-B016-4A5E-9366-995F3E2B1FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="18" xr2:uid="{1287C323-5DD6-494F-92A2-11C5150D5CF0}"/>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="12" xr2:uid="{E0EFB080-E13E-4E8F-85AE-011515BC83F3}"/>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="18" xr2:uid="{6C55E961-0163-42C3-BF67-700818F5B0E4}"/>
+    <workbookView xWindow="47880" yWindow="6225" windowWidth="29040" windowHeight="15720" xr2:uid="{070C838F-FE1D-4DA4-A52B-52ECD4124F04}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1A80F5A9-E67A-4218-80F2-9E0CF3202E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="18" r:id="rId1"/>
@@ -26,10 +25,10 @@
     <sheet name="Layer 1 - IT HR" sheetId="9" r:id="rId9"/>
     <sheet name="Cosine - IT HR" sheetId="21" r:id="rId10"/>
     <sheet name="Schedules - IT HR" sheetId="7" r:id="rId11"/>
-    <sheet name="Distinct Tasks - IT HR" sheetId="10" r:id="rId12"/>
-    <sheet name="Layer 2 - IT HR" sheetId="23" r:id="rId13"/>
-    <sheet name="IT Project Manager" sheetId="11" r:id="rId14"/>
-    <sheet name="Layer 1 - IT Project Manager" sheetId="13" r:id="rId15"/>
+    <sheet name="Layer 2 - IT HR" sheetId="23" r:id="rId12"/>
+    <sheet name="IT Project Manager" sheetId="11" r:id="rId13"/>
+    <sheet name="Layer 1 - IT Project Manager" sheetId="13" r:id="rId14"/>
+    <sheet name="Distinct Tasks - IT HR" sheetId="10" r:id="rId15"/>
     <sheet name="Cosine - IT Project" sheetId="22" r:id="rId16"/>
     <sheet name="Schedules - IT Project Manager" sheetId="12" r:id="rId17"/>
     <sheet name="Distinct Tasks - IT Project Man" sheetId="14" r:id="rId18"/>
@@ -41,11 +40,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Cosine - IT Project'!$A$7:$M$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cosine similarity'!$A$6:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distinct Tasks'!$A$5:$M$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Distinct Tasks - IT HR'!$A$5:$K$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Distinct Tasks - IT HR'!$A$5:$K$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Distinct Tasks - IT Project Man'!$A$5:$M$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Layer 1'!$I$4:$T$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Layer 1 - IT HR'!$I$4:$S$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Layer 1 - IT Project Manager'!$I$4:$S$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Layer 1 - IT Project Manager'!$I$4:$S$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="1534">
   <si>
     <t>Job Profile</t>
   </si>
@@ -5167,6 +5166,27 @@
   </si>
   <si>
     <t>No. of dropped tasks</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>First quartile</t>
+  </si>
+  <si>
+    <t>Median value</t>
+  </si>
+  <si>
+    <t>Third quartile</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -6546,6 +6566,1141 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT HR Administrator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT Project Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$153:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1371735580975902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8533602945450941E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F603-41F2-AFFD-276F8BB5604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT HR Administrator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT Project Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$154:$D$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1821236121839514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33719969299045266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1533681158317988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F603-41F2-AFFD-276F8BB5604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT HR Administrator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT Project Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$155:$D$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7251387816048567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6670676627806875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5037832326387204E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F603-41F2-AFFD-276F8BB5604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT HR Administrator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT Project Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$156:$D$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8567418610288413E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1267890933691626E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F603-41F2-AFFD-276F8BB5604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IT HR Administrator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT Project Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$157:$D$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7619047619047561E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10142085914531973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F603-41F2-AFFD-276F8BB5604F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1108480336"/>
+        <c:axId val="1108482736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108480336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108482736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1108482736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108480336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>61910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251290</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>120460</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B06E79-CE7A-B75A-47C1-FE3A854665C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6863,14 +8018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8E3F46-D1AA-4051-8003-3D916FCFA9D7}">
-  <dimension ref="A1:AK93"/>
+  <dimension ref="A1:AK157"/>
   <sheetViews>
-    <sheetView topLeftCell="V71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84:Q93"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152:D157"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView topLeftCell="H55" workbookViewId="2">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView tabSelected="1" topLeftCell="V46" workbookViewId="1">
+      <selection activeCell="AK56" sqref="AK56:AK64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10755,6 +11909,84 @@
         <f>SUM(B67:J67)/45</f>
         <v>0.40384480319389898</v>
       </c>
+      <c r="N67" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="O67">
+        <f>SUM(P56:X56)</f>
+        <v>4.2441104759475703</v>
+      </c>
+      <c r="P67">
+        <f>SUM(Q57:X57)</f>
+        <v>3.7807559805416315</v>
+      </c>
+      <c r="Q67">
+        <f>SUM(R58:X58)</f>
+        <v>3.2982985461613628</v>
+      </c>
+      <c r="R67">
+        <f>SUM(S59:X59)</f>
+        <v>2.7799632078474596</v>
+      </c>
+      <c r="S67">
+        <f>SUM(T60:X60)</f>
+        <v>1.7126752868794604</v>
+      </c>
+      <c r="T67">
+        <f>SUM(U61:X61)</f>
+        <v>1.8492021050777829</v>
+      </c>
+      <c r="U67">
+        <f>SUM(V62:X62)</f>
+        <v>1.6070044109572543</v>
+      </c>
+      <c r="V67">
+        <f>SUM(W63:X63)</f>
+        <v>1.1297190976676539</v>
+      </c>
+      <c r="W67">
+        <f>SUM(X64)</f>
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB67">
+        <f>SUM(AC56:AK56)</f>
+        <v>1.9395656296521095</v>
+      </c>
+      <c r="AC67">
+        <f>SUM(AD57:AK57)</f>
+        <v>1.8660742259541534</v>
+      </c>
+      <c r="AD67">
+        <f>SUM(AE58:AK58)</f>
+        <v>1.6790539440163317</v>
+      </c>
+      <c r="AE67">
+        <f>SUM(AF59:AK59)</f>
+        <v>1.7800083155153836</v>
+      </c>
+      <c r="AF67">
+        <f>SUM(AG60:AK60)</f>
+        <v>0.9420154431284854</v>
+      </c>
+      <c r="AG67">
+        <f>SUM(AH61:AK61)</f>
+        <v>0.96429846346177062</v>
+      </c>
+      <c r="AH67">
+        <f>SUM(AI62:AK62)</f>
+        <v>0.71431389346387131</v>
+      </c>
+      <c r="AI67">
+        <f>SUM(AJ63:AK63)</f>
+        <v>0.36789351378102292</v>
+      </c>
+      <c r="AJ67">
+        <f>SUM(AK64)</f>
+        <v>0.16692446522239712</v>
+      </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
@@ -10764,6 +11996,20 @@
         <f>SUM(B67:J67)/45</f>
         <v>0.40384480319389898</v>
       </c>
+      <c r="N68" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="O68">
+        <f>SUM(O67:W67)/45</f>
+        <v>0.46371047147287575</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="AB68">
+        <f>SUM(AB67:AJ67)/45</f>
+        <v>0.23155884209323394</v>
+      </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
@@ -11346,11 +12592,15 @@
         <v>22</v>
       </c>
       <c r="AB84" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B15:B29)</f>
-        <v>7</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B3:B17)</f>
+        <v>15</v>
       </c>
       <c r="AC84" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G3:G17,"[task dropped]")</f>
+        <v>0</v>
+      </c>
+      <c r="AD84" s="50">
+        <f>AC84/AB84*100</f>
         <v>0</v>
       </c>
     </row>
@@ -11387,13 +12637,17 @@
         <v>32</v>
       </c>
       <c r="AB85" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B39:B54)</f>
-        <v>14</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B27:B42)</f>
+        <v>16</v>
       </c>
       <c r="AC85" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G27:G42,"[task dropped]")</f>
         <v>5</v>
       </c>
+      <c r="AD85" s="50">
+        <f t="shared" ref="AD85:AD93" si="14">AC85/AB85*100</f>
+        <v>31.25</v>
+      </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
@@ -11428,13 +12682,17 @@
         <v>45</v>
       </c>
       <c r="AB86" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B57:B73)</f>
-        <v>15</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B45:B61)</f>
+        <v>17</v>
       </c>
       <c r="AC86" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G45:G61,"[task dropped]")</f>
         <v>3</v>
       </c>
+      <c r="AD86" s="50">
+        <f t="shared" si="14"/>
+        <v>17.647058823529413</v>
+      </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
@@ -11469,13 +12727,17 @@
         <v>48</v>
       </c>
       <c r="AB87" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B76:B95)</f>
-        <v>18</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B64:B83)</f>
+        <v>20</v>
       </c>
       <c r="AC87" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G64:G83,"[task dropped]")</f>
         <v>4</v>
       </c>
+      <c r="AD87" s="50">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
@@ -11510,13 +12772,17 @@
         <v>51</v>
       </c>
       <c r="AB88" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B98:B114)</f>
-        <v>15</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B86:B102)</f>
+        <v>17</v>
       </c>
       <c r="AC88" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G86:G102,"[task dropped]")</f>
         <v>5</v>
       </c>
+      <c r="AD88" s="50">
+        <f t="shared" si="14"/>
+        <v>29.411764705882355</v>
+      </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
@@ -11551,13 +12817,17 @@
         <v>72</v>
       </c>
       <c r="AB89" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B117:B135)</f>
-        <v>17</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B105:B123)</f>
+        <v>19</v>
       </c>
       <c r="AC89" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G105:G123,"[task dropped]")</f>
         <v>8</v>
       </c>
+      <c r="AD89" s="50">
+        <f t="shared" si="14"/>
+        <v>42.105263157894733</v>
+      </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
@@ -11592,13 +12862,17 @@
         <v>78</v>
       </c>
       <c r="AB90" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B138:B155)</f>
-        <v>16</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B126:B143)</f>
+        <v>18</v>
       </c>
       <c r="AC90" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G126:G143,"[task dropped]")</f>
         <v>3</v>
       </c>
+      <c r="AD90" s="50">
+        <f t="shared" si="14"/>
+        <v>16.666666666666664</v>
+      </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
@@ -11633,13 +12907,17 @@
         <v>91</v>
       </c>
       <c r="AB91" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B158:B177)</f>
-        <v>18</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B146:B165)</f>
+        <v>20</v>
       </c>
       <c r="AC91" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G146:G165,"[task dropped]")</f>
         <v>5</v>
       </c>
+      <c r="AD91" s="50">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
@@ -11674,13 +12952,17 @@
         <v>98</v>
       </c>
       <c r="AB92" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B180:B196)</f>
-        <v>15</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B168:B184)</f>
+        <v>17</v>
       </c>
       <c r="AC92" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G168:G184,"[task dropped]")</f>
         <v>4</v>
       </c>
+      <c r="AD92" s="50">
+        <f t="shared" si="14"/>
+        <v>23.52941176470588</v>
+      </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
@@ -11715,17 +12997,872 @@
         <v>99</v>
       </c>
       <c r="AB93" s="5">
-        <f>COUNTA('Layer 2 - IT Project Man'!B199:B217)</f>
-        <v>7</v>
+        <f>COUNTA('Layer 2 - IT Project Man'!B187:B205)</f>
+        <v>19</v>
       </c>
       <c r="AC93" s="5">
         <f>COUNTIF('Layer 2 - IT Project Man'!G187:G205,"[task dropped]")</f>
         <v>6</v>
       </c>
+      <c r="AD93" s="50">
+        <f t="shared" si="14"/>
+        <v>31.578947368421051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="C94" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D94" s="50">
+        <f>AVERAGE(D84:D93)</f>
+        <v>31.874999999999993</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q94" s="50">
+        <f>AVERAGE(Q84:Q93)</f>
+        <v>28.842105263157897</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AD94" s="50">
+        <f>AVERAGE(AD84:AD93)</f>
+        <v>23.718911248710008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="C98">
+        <v>0.51176631571915898</v>
+      </c>
+      <c r="D98">
+        <v>0.19364916731037085</v>
+      </c>
+      <c r="N98">
+        <v>0.51176631571915898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C99">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D99">
+        <v>0.25048971643405976</v>
+      </c>
+      <c r="N99">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C100">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D100">
+        <v>0.24253562503633297</v>
+      </c>
+      <c r="N100">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="C101">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D101">
+        <v>0.23094010767585027</v>
+      </c>
+      <c r="N101">
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B102">
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="C102">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D102">
+        <v>0.27950849718747373</v>
+      </c>
+      <c r="N102">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C103">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="D103">
+        <v>0.32539568672798425</v>
+      </c>
+      <c r="N103">
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>0.19364916731037085</v>
+      </c>
+      <c r="C104">
+        <v>0.37219368415938836</v>
+      </c>
+      <c r="D104">
+        <v>0.12524485821702988</v>
+      </c>
+      <c r="N104">
+        <v>0.37219368415938836</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="C105">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D105">
+        <v>0.18190171877724973</v>
+      </c>
+      <c r="N105">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C106">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D106">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="N106">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>0.4375</v>
+      </c>
+      <c r="C107">
+        <v>0.41871789467931186</v>
+      </c>
+      <c r="D107">
+        <v>0.37962830118264829</v>
+      </c>
+      <c r="N107">
+        <v>0.41871789467931186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="C108">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D108">
+        <v>0.23693955110363693</v>
+      </c>
+      <c r="N108">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="C109">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D109">
+        <v>0.22941573387056174</v>
+      </c>
+      <c r="N109">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="C110">
+        <v>0.55829052623908249</v>
+      </c>
+      <c r="D110">
+        <v>0.11128297681493142</v>
+      </c>
+      <c r="N110">
+        <v>0.55829052623908249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>0.375</v>
+      </c>
+      <c r="C111">
+        <v>0.37219368415938836</v>
+      </c>
+      <c r="D111">
+        <v>0.25649458802128849</v>
+      </c>
+      <c r="N111">
+        <v>0.37219368415938836</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>0.4375</v>
+      </c>
+      <c r="C112">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D112">
+        <v>0.27820744203732856</v>
+      </c>
+      <c r="N112">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="C113">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D113">
+        <v>0.3042903097250923</v>
+      </c>
+      <c r="N113">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C114">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D114">
+        <v>0.23570226039551587</v>
+      </c>
+      <c r="N114">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C115">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D115">
+        <v>0.28583097523751472</v>
+      </c>
+      <c r="N115">
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>0.5625</v>
+      </c>
+      <c r="C116">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D116">
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="N116">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>0.4375</v>
+      </c>
+      <c r="C117">
+        <v>0.41871789467931186</v>
+      </c>
+      <c r="D117">
+        <v>0.2286647801900118</v>
+      </c>
+      <c r="N117">
+        <v>0.41871789467931186</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D118">
+        <v>0.27036903521793759</v>
+      </c>
+      <c r="N118">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C119">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D119">
+        <v>0.1732050807568877</v>
+      </c>
+      <c r="N119">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C120">
+        <v>0.51176631571915898</v>
+      </c>
+      <c r="D120">
+        <v>0.16770509831248423</v>
+      </c>
+      <c r="N120">
+        <v>0.51176631571915898</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C121">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D121">
+        <v>0.32539568672798425</v>
+      </c>
+      <c r="N121">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="C122">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D122">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="N122">
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C123">
+        <v>0.11167656571008165</v>
+      </c>
+      <c r="D123">
+        <v>7.2760687510899882E-2</v>
+      </c>
+      <c r="N123">
+        <v>0.11167656571008165</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="C124">
+        <v>0.51176631571915898</v>
+      </c>
+      <c r="D124">
+        <v>0.2051956704170308</v>
+      </c>
+      <c r="N124">
+        <v>0.51176631571915898</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="C125">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D125">
+        <v>0.15811388300841897</v>
+      </c>
+      <c r="N125">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="C126">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D126">
+        <v>0.18786728732554484</v>
+      </c>
+      <c r="N126">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="C127">
+        <v>0.41871789467931186</v>
+      </c>
+      <c r="D127">
+        <v>0.24253562503633297</v>
+      </c>
+      <c r="N127">
+        <v>0.41871789467931186</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C128">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D128">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="N128">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>0.4375</v>
+      </c>
+      <c r="C129">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D129">
+        <v>0.2711630722733202</v>
+      </c>
+      <c r="N129">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>0.140625</v>
+      </c>
+      <c r="C130">
+        <v>9.1371735580975902E-2</v>
+      </c>
+      <c r="D130">
+        <v>2.8533602945450941E-2</v>
+      </c>
+      <c r="N130">
+        <v>9.1371735580975902E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <v>0.37219368415938836</v>
+      </c>
+      <c r="D131">
+        <v>0.27820744203732856</v>
+      </c>
+      <c r="N131">
+        <v>0.37219368415938836</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D132">
+        <v>0.28583097523751472</v>
+      </c>
+      <c r="N132">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>0.58094750193111255</v>
+      </c>
+      <c r="C133">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D133">
+        <v>0.16269784336399212</v>
+      </c>
+      <c r="N133">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="C134">
+        <v>0.41871789467931186</v>
+      </c>
+      <c r="D134">
+        <v>0.23693955110363693</v>
+      </c>
+      <c r="N134">
+        <v>0.41871789467931186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>0.53333333333333321</v>
+      </c>
+      <c r="C135">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D135">
+        <v>0.28676966733820219</v>
+      </c>
+      <c r="N135">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C136">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D136">
+        <v>0.27820744203732856</v>
+      </c>
+      <c r="N136">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="C137">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D137">
+        <v>0.25649458802128849</v>
+      </c>
+      <c r="N137">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="C138">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D138">
+        <v>0.33384893044479425</v>
+      </c>
+      <c r="N138">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>0.58094750193111255</v>
+      </c>
+      <c r="C139">
+        <v>0.5</v>
+      </c>
+      <c r="D139">
+        <v>0.21052631578947364</v>
+      </c>
+      <c r="N139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>0.45184805705753195</v>
+      </c>
+      <c r="C140">
+        <v>0.51176631571915898</v>
+      </c>
+      <c r="D140">
+        <v>0.27036903521793759</v>
+      </c>
+      <c r="N140">
+        <v>0.51176631571915898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>0.6</v>
+      </c>
+      <c r="C141">
+        <v>0.55829052623908249</v>
+      </c>
+      <c r="D141">
+        <v>0.2051956704170308</v>
+      </c>
+      <c r="N141">
+        <v>0.55829052623908249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>0.58094750193111255</v>
+      </c>
+      <c r="C142">
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D142">
+        <v>0.16692446522239712</v>
+      </c>
+      <c r="N142">
+        <v>0.46524210519923542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B143">
+        <f>AVERAGE(B98:B142)</f>
+        <v>0.40384480319389909</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:D143" si="15">AVERAGE(C98:C142)</f>
+        <v>0.4637104714728757</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="15"/>
+        <v>0.23155884209323385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B144">
+        <f>MIN(B98:B143)</f>
+        <v>0.140625</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:D144" si="16">MIN(C98:C143)</f>
+        <v>9.1371735580975902E-2</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="16"/>
+        <v>2.8533602945450941E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B145">
+        <f>_xlfn.QUARTILE.INC(B98:B142,1)</f>
+        <v>0.3227486121839514</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145:D145" si="17">_xlfn.QUARTILE.INC(C98:C142,1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="17"/>
+        <v>0.18190171877724973</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B146">
+        <f>_xlfn.QUARTILE.INC(B98:B142,2)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146:D146" si="18">_xlfn.QUARTILE.INC(C98:C142,2)</f>
+        <v>0.46524210519923542</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="18"/>
+        <v>0.23693955110363693</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B147">
+        <f>_xlfn.QUARTILE.INC(B98:B142,3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147:D147" si="19">_xlfn.QUARTILE.INC(C98:C142,3)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="19"/>
+        <v>0.27820744203732856</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B148">
+        <f>MAX(B98:B142)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:D148" si="20">MAX(C98:C142)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="20"/>
+        <v>0.37962830118264829</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B153">
+        <v>0.140625</v>
+      </c>
+      <c r="C153">
+        <v>9.1371735580975902E-2</v>
+      </c>
+      <c r="D153">
+        <v>2.8533602945450941E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B154">
+        <f>B145-B144</f>
+        <v>0.1821236121839514</v>
+      </c>
+      <c r="C154">
+        <f>C145-C144</f>
+        <v>0.33719969299045266</v>
+      </c>
+      <c r="D154">
+        <f>D145-D144</f>
+        <v>0.1533681158317988</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B155">
+        <f>B146-B145</f>
+        <v>7.7251387816048567E-2</v>
+      </c>
+      <c r="C155">
+        <f>C146-C145</f>
+        <v>3.6670676627806875E-2</v>
+      </c>
+      <c r="D155">
+        <f>D146-D145</f>
+        <v>5.5037832326387204E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B156">
+        <f>B147-B146</f>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="C156">
+        <f>C147-C146</f>
+        <v>5.8567418610288413E-2</v>
+      </c>
+      <c r="D156">
+        <f>D147-D146</f>
+        <v>4.1267890933691626E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B157">
+        <f>B148-B147</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C157">
+        <f>C148-C147</f>
+        <v>4.7619047619047561E-2</v>
+      </c>
+      <c r="D157">
+        <f>D148-D147</f>
+        <v>0.10142085914531973</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11733,14 +13870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4989A58-57BF-4BED-A9AF-3111224C0B77}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15155,13 +17286,8 @@
   </sheetPr>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B87"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="2">
-      <selection activeCell="B85" activeCellId="5" sqref="B71 B75 B74 B80 B82 B85"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16814,1251 +18940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAE4AB3-5409-4513-8AC3-B0BF056F44E4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M95"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2">
-      <selection activeCell="K101" sqref="K101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="84.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B1" t="b">
-        <f>(B2=B3)</f>
-        <v>1</v>
-      </c>
-      <c r="C1" t="b">
-        <f t="shared" ref="C1:K1" si="0">(C2=C3)</f>
-        <v>1</v>
-      </c>
-      <c r="D1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="29">
-        <f t="shared" ref="B2:K2" si="1">SUM(B6:B95)</f>
-        <v>19</v>
-      </c>
-      <c r="C2" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D2" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E2" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F2" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G2" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H2" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I2" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J2" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="K2" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>19</v>
-      </c>
-      <c r="C3" s="29">
-        <v>20</v>
-      </c>
-      <c r="D3" s="29">
-        <v>19</v>
-      </c>
-      <c r="E3" s="29">
-        <v>19</v>
-      </c>
-      <c r="F3" s="29">
-        <v>20</v>
-      </c>
-      <c r="G3" s="29">
-        <v>20</v>
-      </c>
-      <c r="H3" s="29">
-        <v>19</v>
-      </c>
-      <c r="I3" s="29">
-        <v>19</v>
-      </c>
-      <c r="J3" s="29">
-        <v>19</v>
-      </c>
-      <c r="K3" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="29">
-        <v>7</v>
-      </c>
-      <c r="C4" s="29">
-        <v>11</v>
-      </c>
-      <c r="D4" s="29">
-        <v>22</v>
-      </c>
-      <c r="E4" s="29">
-        <v>26</v>
-      </c>
-      <c r="F4" s="29">
-        <v>32</v>
-      </c>
-      <c r="G4" s="29">
-        <v>39</v>
-      </c>
-      <c r="H4" s="29">
-        <v>44</v>
-      </c>
-      <c r="I4" s="29">
-        <v>64</v>
-      </c>
-      <c r="J4" s="29">
-        <v>71</v>
-      </c>
-      <c r="K4" s="29">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>566</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="228" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>570</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>572</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="114" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>580</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="114" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>593</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>597</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>602</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>604</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>606</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>613</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>617</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>625</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>627</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>631</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>638</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>640</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>646</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>648</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>663</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>665</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>668</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>672</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>673</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>675</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>678</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>680</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>684</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>694</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>696</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>698</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>704</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>706</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>711</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>713</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>728</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>729</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>733</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>735</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>753</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>755</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>759</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>761</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>764</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>767</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>779</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>782</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>797</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>810</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>814</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>820</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>824</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>831</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>833</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>862</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>865</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>866</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>874</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>875</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>877</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A5:K95" xr:uid="{7CAE4AB3-5409-4513-8AC3-B0BF056F44E4}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A95">
-    <cfRule type="duplicateValues" dxfId="54" priority="496"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="497"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A23">
-    <cfRule type="duplicateValues" dxfId="52" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A95">
-    <cfRule type="duplicateValues" dxfId="51" priority="494"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:K1">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M48">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6646A8CF-A13E-44F2-84CC-1CAA004F3414}">
   <dimension ref="A1:AB213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E216" sqref="E216"/>
-    </sheetView>
-    <sheetView topLeftCell="A172" zoomScale="82" zoomScaleNormal="82" workbookViewId="2">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -26203,82 +27089,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B42">
-    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B63">
-    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B84">
-    <cfRule type="duplicateValues" dxfId="45" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B106">
-    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:B128">
-    <cfRule type="duplicateValues" dxfId="43" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B149">
-    <cfRule type="duplicateValues" dxfId="42" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B170">
-    <cfRule type="duplicateValues" dxfId="41" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B191">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:B212">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D42">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D63">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:D84">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:D106">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D128">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D131:D149">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D170">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173:D191">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D194:D213">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26286,7 +27172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E125F145-4B77-44AF-87E0-95B295210109}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -26295,7 +27181,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -26303,15 +27188,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD3A07-FBD8-4E64-9BBF-C6C703217C2C}">
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27999,7 +28881,1234 @@
   </sheetData>
   <autoFilter ref="I4:S173" xr:uid="{4FAD3A07-FBD8-4E64-9BBF-C6C703217C2C}"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAE4AB3-5409-4513-8AC3-B0BF056F44E4}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="84.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" t="b">
+        <f>(B2=B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <f t="shared" ref="C1:K1" si="0">(C2=C3)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="29">
+        <f t="shared" ref="B2:K2" si="1">SUM(B6:B95)</f>
+        <v>19</v>
+      </c>
+      <c r="C2" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G2" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J2" s="29">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K2" s="29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29">
+        <v>20</v>
+      </c>
+      <c r="D3" s="29">
+        <v>19</v>
+      </c>
+      <c r="E3" s="29">
+        <v>19</v>
+      </c>
+      <c r="F3" s="29">
+        <v>20</v>
+      </c>
+      <c r="G3" s="29">
+        <v>20</v>
+      </c>
+      <c r="H3" s="29">
+        <v>19</v>
+      </c>
+      <c r="I3" s="29">
+        <v>19</v>
+      </c>
+      <c r="J3" s="29">
+        <v>19</v>
+      </c>
+      <c r="K3" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="29">
+        <v>7</v>
+      </c>
+      <c r="C4" s="29">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29">
+        <v>22</v>
+      </c>
+      <c r="E4" s="29">
+        <v>26</v>
+      </c>
+      <c r="F4" s="29">
+        <v>32</v>
+      </c>
+      <c r="G4" s="29">
+        <v>39</v>
+      </c>
+      <c r="H4" s="29">
+        <v>44</v>
+      </c>
+      <c r="I4" s="29">
+        <v>64</v>
+      </c>
+      <c r="J4" s="29">
+        <v>71</v>
+      </c>
+      <c r="K4" s="29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="228" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="114" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="114" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>602</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>604</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>638</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>640</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>646</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>648</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>663</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>665</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>668</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>672</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>673</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>675</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>678</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>680</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>684</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>694</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>696</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>698</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>704</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>706</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>711</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>713</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>728</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>729</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>733</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>735</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>753</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>755</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>759</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>761</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>764</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>767</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>779</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>782</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>797</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>810</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>814</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>820</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>824</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>831</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>833</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>862</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>865</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>866</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>874</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>875</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>877</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:K95" xr:uid="{7CAE4AB3-5409-4513-8AC3-B0BF056F44E4}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A95">
+    <cfRule type="duplicateValues" dxfId="33" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="497"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A23">
+    <cfRule type="duplicateValues" dxfId="31" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A95">
+    <cfRule type="duplicateValues" dxfId="30" priority="494"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:K1">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M48">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28009,13 +30118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9355FB-15C7-4380-9D61-D0A07F975360}">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView topLeftCell="A92" workbookViewId="2">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -33048,13 +35152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD4D5F-005B-43EB-B105-CA0F94D6EA23}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="2">
-      <selection activeCell="B80" activeCellId="4" sqref="B70 B68 B73 B76 B80"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -34717,13 +36816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095897B-2A27-4710-831F-DCC63332CAEB}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -36903,15 +38997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472323C2-54B8-4636-BFBC-572495ECA10B}">
   <dimension ref="A1:AB205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-    <sheetView topLeftCell="A181" zoomScale="120" zoomScaleNormal="120" workbookViewId="1">
-      <selection activeCell="E204" sqref="E204"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="2">
-      <selection activeCell="E57" sqref="E57"/>
-    </sheetView>
+    <sheetView topLeftCell="A171" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -45084,11 +47171,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -45100,11 +47184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D42D8F3-2A8B-46A7-90C3-9AC7482106CF}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -45307,11 +47388,8 @@
   </sheetPr>
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -46967,13 +49045,8 @@
   </sheetPr>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-    <sheetView topLeftCell="A61" workbookViewId="1">
-      <selection activeCell="H86" sqref="H86"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -50346,13 +52419,8 @@
   </sheetPr>
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView topLeftCell="A39" workbookViewId="2">
-      <selection activeCell="A54" sqref="A54:B69"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -51536,11 +53604,8 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -53173,15 +55238,8 @@
   </sheetPr>
   <dimension ref="A1:AG174"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AB1"/>
-    </sheetView>
-    <sheetView topLeftCell="A150" workbookViewId="1">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="2">
-      <selection activeCell="F136" sqref="F136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -60739,7 +62797,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -60752,14 +62809,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2">
-      <selection activeCell="I60" sqref="I60"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
